--- a/prep_data/2025_kickoff-returns_defense.xlsx
+++ b/prep_data/2025_kickoff-returns_defense.xlsx
@@ -482,16 +482,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>682</v>
+        <v>695</v>
       </c>
       <c r="E2" t="n">
-        <v>19.49</v>
+        <v>19.31</v>
       </c>
       <c r="F2" t="n">
         <v>38</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>52.5</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="3">
@@ -510,16 +510,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="D3" t="n">
-        <v>1016</v>
+        <v>1244</v>
       </c>
       <c r="E3" t="n">
-        <v>22.09</v>
+        <v>22.62</v>
       </c>
       <c r="F3" t="n">
         <v>46</v>
@@ -528,7 +528,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>78.2</v>
+        <v>82.90000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D4" t="n">
-        <v>962</v>
+        <v>1128</v>
       </c>
       <c r="E4" t="n">
-        <v>23.46</v>
+        <v>23.5</v>
       </c>
       <c r="F4" t="n">
         <v>35</v>
@@ -556,63 +556,63 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>74</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Philadelphia Eagles</t>
+          <t>New York Giants</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D5" t="n">
-        <v>1261</v>
+        <v>1330</v>
       </c>
       <c r="E5" t="n">
-        <v>23.79</v>
+        <v>23.75</v>
       </c>
       <c r="F5" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>97</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>New England Patriots</t>
+          <t>Philadelphia Eagles</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D6" t="n">
-        <v>1342</v>
+        <v>1502</v>
       </c>
       <c r="E6" t="n">
-        <v>23.96</v>
+        <v>23.84</v>
       </c>
       <c r="F6" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>103.2</v>
+        <v>100.1</v>
       </c>
     </row>
     <row r="7">
@@ -622,16 +622,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="D7" t="n">
-        <v>1537</v>
+        <v>1787</v>
       </c>
       <c r="E7" t="n">
-        <v>24.02</v>
+        <v>24.15</v>
       </c>
       <c r="F7" t="n">
         <v>47</v>
@@ -640,35 +640,35 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>118.2</v>
+        <v>119.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>New York Giants</t>
+          <t>Tennessee Titans</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
-        <v>1207</v>
+        <v>1019</v>
       </c>
       <c r="E8" t="n">
-        <v>24.14</v>
+        <v>24.85</v>
       </c>
       <c r="F8" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>92.8</v>
+        <v>67.90000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -678,16 +678,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D9" t="n">
-        <v>1683</v>
+        <v>1981</v>
       </c>
       <c r="E9" t="n">
-        <v>24.75</v>
+        <v>25.08</v>
       </c>
       <c r="F9" t="n">
         <v>38</v>
@@ -696,35 +696,35 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>129.5</v>
+        <v>132.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tennessee Titans</t>
+          <t>New England Patriots</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D10" t="n">
-        <v>871</v>
+        <v>1555</v>
       </c>
       <c r="E10" t="n">
-        <v>24.89</v>
+        <v>25.08</v>
       </c>
       <c r="F10" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>67</v>
+        <v>103.7</v>
       </c>
     </row>
     <row r="11">
@@ -734,16 +734,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D11" t="n">
-        <v>1551</v>
+        <v>1759</v>
       </c>
       <c r="E11" t="n">
-        <v>25.02</v>
+        <v>25.13</v>
       </c>
       <c r="F11" t="n">
         <v>40</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>119.3</v>
+        <v>117.3</v>
       </c>
     </row>
     <row r="12">
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D12" t="n">
-        <v>1437</v>
+        <v>1636</v>
       </c>
       <c r="E12" t="n">
-        <v>25.21</v>
+        <v>25.17</v>
       </c>
       <c r="F12" t="n">
         <v>49</v>
@@ -780,259 +780,259 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>110.5</v>
+        <v>109.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>San Francisco 49ers</t>
+          <t>Kansas City Chiefs</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C13" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D13" t="n">
-        <v>1443</v>
+        <v>1588</v>
       </c>
       <c r="E13" t="n">
-        <v>25.32</v>
+        <v>25.21</v>
       </c>
       <c r="F13" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>111</v>
+        <v>105.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Green Bay Packers</t>
+          <t>San Francisco 49ers</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="D14" t="n">
-        <v>1245</v>
+        <v>1699</v>
       </c>
       <c r="E14" t="n">
-        <v>25.41</v>
+        <v>25.36</v>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>95.8</v>
+        <v>113.3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Kansas City Chiefs</t>
+          <t>Dallas Cowboys</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15" t="n">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="D15" t="n">
-        <v>1373</v>
+        <v>1840</v>
       </c>
       <c r="E15" t="n">
-        <v>25.43</v>
+        <v>25.56</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>105.6</v>
+        <v>122.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>New York Jets</t>
+          <t>Green Bay Packers</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D16" t="n">
-        <v>1188</v>
+        <v>1527</v>
       </c>
       <c r="E16" t="n">
-        <v>25.83</v>
+        <v>25.88</v>
       </c>
       <c r="F16" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>91.40000000000001</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Detroit Lions</t>
+          <t>Buffalo Bills</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D17" t="n">
-        <v>1612</v>
+        <v>1923</v>
       </c>
       <c r="E17" t="n">
-        <v>26</v>
+        <v>25.99</v>
       </c>
       <c r="F17" t="n">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>124</v>
+        <v>128.2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Minnesota Vikings</t>
+          <t>Detroit Lions</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C18" t="n">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="D18" t="n">
-        <v>1276</v>
+        <v>1873</v>
       </c>
       <c r="E18" t="n">
-        <v>26.04</v>
+        <v>26.01</v>
       </c>
       <c r="F18" t="n">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>98.2</v>
+        <v>124.9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Buffalo Bills</t>
+          <t>Minnesota Vikings</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D19" t="n">
-        <v>1719</v>
+        <v>1527</v>
       </c>
       <c r="E19" t="n">
-        <v>26.05</v>
+        <v>26.33</v>
       </c>
       <c r="F19" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>132.2</v>
+        <v>101.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dallas Cowboys</t>
+          <t>Cincinnati Bengals</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D20" t="n">
-        <v>1620</v>
+        <v>1742</v>
       </c>
       <c r="E20" t="n">
-        <v>26.13</v>
+        <v>26.39</v>
       </c>
       <c r="F20" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>124.6</v>
+        <v>116.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cincinnati Bengals</t>
+          <t>New York Jets</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C21" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D21" t="n">
-        <v>1492</v>
+        <v>1375</v>
       </c>
       <c r="E21" t="n">
-        <v>26.18</v>
+        <v>26.44</v>
       </c>
       <c r="F21" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>114.8</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="22">
@@ -1042,16 +1042,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C22" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D22" t="n">
-        <v>1276</v>
+        <v>1376</v>
       </c>
       <c r="E22" t="n">
-        <v>26.58</v>
+        <v>26.46</v>
       </c>
       <c r="F22" t="n">
         <v>54</v>
@@ -1060,287 +1060,287 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>98.2</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Miami Dolphins</t>
+          <t>Houston Texans</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C23" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D23" t="n">
-        <v>1337</v>
+        <v>1698</v>
       </c>
       <c r="E23" t="n">
-        <v>26.74</v>
+        <v>26.53</v>
       </c>
       <c r="F23" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>102.8</v>
+        <v>113.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Houston Texans</t>
+          <t>Las Vegas Raiders</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C24" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D24" t="n">
-        <v>1391</v>
+        <v>1204</v>
       </c>
       <c r="E24" t="n">
-        <v>26.75</v>
+        <v>26.76</v>
       </c>
       <c r="F24" t="n">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>107</v>
+        <v>80.3</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Las Vegas Raiders</t>
+          <t>Miami Dolphins</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C25" t="n">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D25" t="n">
-        <v>1085</v>
+        <v>1508</v>
       </c>
       <c r="E25" t="n">
-        <v>27.12</v>
+        <v>26.93</v>
       </c>
       <c r="F25" t="n">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>83.5</v>
+        <v>100.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>New Orleans Saints</t>
+          <t>Chicago Bears</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C26" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="D26" t="n">
-        <v>984</v>
+        <v>1699</v>
       </c>
       <c r="E26" t="n">
-        <v>27.33</v>
+        <v>26.97</v>
       </c>
       <c r="F26" t="n">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>75.7</v>
+        <v>113.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chicago Bears</t>
+          <t>New Orleans Saints</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D27" t="n">
-        <v>1507</v>
+        <v>1158</v>
       </c>
       <c r="E27" t="n">
-        <v>27.4</v>
+        <v>27.57</v>
       </c>
       <c r="F27" t="n">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9</v>
+        <v>77.2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Arizona Cardinals</t>
+          <t>Tampa Bay Buccaneers</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D28" t="n">
-        <v>1337</v>
+        <v>1646</v>
       </c>
       <c r="E28" t="n">
-        <v>27.85</v>
+        <v>27.9</v>
       </c>
       <c r="F28" t="n">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>102.8</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Tampa Bay Buccaneers</t>
+          <t>Denver Broncos</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="n">
         <v>59</v>
       </c>
       <c r="D29" t="n">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="E29" t="n">
-        <v>27.9</v>
+        <v>27.95</v>
       </c>
       <c r="F29" t="n">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>126.6</v>
+        <v>109.9</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cleveland Browns</t>
+          <t>Los Angeles Chargers</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C30" t="n">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D30" t="n">
-        <v>1128</v>
+        <v>1887</v>
       </c>
       <c r="E30" t="n">
-        <v>28.2</v>
+        <v>28.16</v>
       </c>
       <c r="F30" t="n">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>86.8</v>
+        <v>125.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Denver Broncos</t>
+          <t>Cleveland Browns</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C31" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D31" t="n">
-        <v>1415</v>
+        <v>1302</v>
       </c>
       <c r="E31" t="n">
         <v>28.3</v>
       </c>
       <c r="F31" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>108.8</v>
+        <v>86.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Los Angeles Chargers</t>
+          <t>Arizona Cardinals</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C32" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D32" t="n">
-        <v>1609</v>
+        <v>1445</v>
       </c>
       <c r="E32" t="n">
-        <v>28.73</v>
+        <v>28.9</v>
       </c>
       <c r="F32" t="n">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>123.8</v>
+        <v>96.3</v>
       </c>
     </row>
     <row r="33">
@@ -1350,16 +1350,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D33" t="n">
-        <v>1309</v>
+        <v>1492</v>
       </c>
       <c r="E33" t="n">
-        <v>31.17</v>
+        <v>30.45</v>
       </c>
       <c r="F33" t="n">
         <v>100</v>
@@ -1368,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>100.7</v>
+        <v>99.5</v>
       </c>
     </row>
   </sheetData>
